--- a/kb/kb.xlsx
+++ b/kb/kb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoyangao\git_project\IVY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoyangao\git_project\IVY\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF90D29D-2B59-4175-8C97-B994CBDA3060}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B6C7A-55B8-4749-A24F-0E0099EA0775}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="637">
   <si>
     <t>for all other country, the cust_id is country ISO code + CIF, for singapore, cin + cin suffix</t>
   </si>
@@ -2789,6 +2789,9 @@
   </si>
   <si>
     <t>66fb1fdbd12236ad4a82416aa3df85e6</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -4537,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,6 +4691,11 @@
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/kb/kb.xlsx
+++ b/kb/kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoyangao\git_project\IVY\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B6C7A-55B8-4749-A24F-0E0099EA0775}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD92FE-6139-4931-A985-B0A8E83529AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="638">
   <si>
     <t>for all other country, the cust_id is country ISO code + CIF, for singapore, cin + cin suffix</t>
   </si>
@@ -2792,6 +2792,9 @@
   </si>
   <si>
     <t>add</t>
+  </si>
+  <si>
+    <t>ad1</t>
   </si>
 </sst>
 </file>
@@ -4540,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,6 +4699,11 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
